--- a/old_database/crypto/library/library_0673.xlsx
+++ b/old_database/crypto/library/library_0673.xlsx
@@ -49,7 +49,7 @@
     <t>12.12.11</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0673</t>
   </si>
   <si>
     <t>03.12.12</t>
